--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s307.B12_307_12.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932669EF-F65A-4E87-B1E5-A7251264A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A835793-247D-4EEF-AD90-2F15E03062A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -510,12 +510,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,6 +659,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,7 +959,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +997,7 @@
       <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -983,7 +1035,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1071,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="47" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1109,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1083,9 +1137,7 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1171,7 @@
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1200,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="30"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -1272,8 +1324,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinil\OneDrive\Desktop\Universidad\Semestre 4\Codigo Limpio\Proyecto\Hipoteca-Inversa-CL-2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinil\Desktop\Universidad\Semestre 4\LENGUAJES DE PROGRAMACIÓN Y CÓDIGO LIMPIO\Proyecto Hipoteca Inversa\Hipoteca-Inversa-CL-2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B56891-1A47-4338-B9B0-AF99113199DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522198A7-92BD-49BF-8273-60188C8195C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-1320" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos De Prueba" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>Casos Normales</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>Intereses Totales</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -535,12 +538,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +666,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,22 +1179,22 @@
         <v>40</v>
       </c>
       <c r="C7" s="31">
-        <v>48261251.195472024</v>
+        <v>51708483.423720002</v>
       </c>
       <c r="D7" s="31">
-        <v>48261251.195472024</v>
+        <v>55155715.65196804</v>
       </c>
       <c r="E7" s="31">
-        <v>6792170.9067313569</v>
+        <v>7471387.9974044915</v>
       </c>
       <c r="F7" s="31">
-        <v>196423.04986500097</v>
+        <v>183328.17987400075</v>
       </c>
       <c r="G7" s="31">
-        <v>172361611.41240007</v>
+        <v>206833933.6948801</v>
       </c>
       <c r="H7" s="31">
-        <v>33960.854533656791</v>
+        <v>37356.939987022386</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -1323,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93E410F-6D9C-48B9-B3C8-C35D9CB27E35}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,15 +1512,15 @@
         <v>0</v>
       </c>
       <c r="C14" s="17">
-        <f>E9</f>
+        <f>$E$9</f>
         <v>625000</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" ref="D14:D217" si="0">B14+C14</f>
+        <f>B14+C14</f>
         <v>625000</v>
       </c>
       <c r="E14" s="18">
-        <f>D14*E11</f>
+        <f>D14*$E$11</f>
         <v>11637.328101161969</v>
       </c>
     </row>
@@ -1501,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" ref="B15:B217" si="1">D14+E14</f>
+        <f>D14+E14</f>
         <v>636637.32810116198</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" ref="C15:C78" si="2">C14</f>
+        <f>$E$9</f>
         <v>625000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="0"/>
+        <f>B15+C15</f>
         <v>1261637.3281011619</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" ref="E15:E217" si="3">D15*$E$11</f>
+        <f t="shared" ref="E15:E78" si="0">D15*$E$11</f>
         <v>23491.340050858489</v>
       </c>
     </row>
@@ -1522,19 +1550,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="17">
-        <f t="shared" si="1"/>
+        <f>D15+E15</f>
         <v>1285128.6681520203</v>
       </c>
       <c r="C16" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C15:C78" si="1">$E$9</f>
         <v>625000</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D14:D217" si="2">B16+C16</f>
         <v>1910128.6681520203</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35566.070442752949</v>
       </c>
     </row>
@@ -1543,19 +1571,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="17">
-        <f t="shared" si="1"/>
+        <f>D16+E16</f>
         <v>1945694.7385947732</v>
       </c>
       <c r="C17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2570694.7385947732</v>
       </c>
       <c r="E17" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>47865.628993533086</v>
       </c>
     </row>
@@ -1564,19 +1592,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B15:B217" si="3">D17+E17</f>
         <v>2618560.3675883063</v>
       </c>
       <c r="C18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3243560.3675883063</v>
       </c>
       <c r="E18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>60394.201941681036</v>
       </c>
     </row>
@@ -1585,19 +1613,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3303954.5695299874</v>
       </c>
       <c r="C19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3928954.5695299874</v>
       </c>
       <c r="E19" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>73156.053472288084</v>
       </c>
     </row>
@@ -1606,19 +1634,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4002110.6230022754</v>
       </c>
       <c r="C20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4627110.6230022758</v>
       </c>
       <c r="E20" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>86155.52716839913</v>
       </c>
     </row>
@@ -1627,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4713266.1501706745</v>
       </c>
       <c r="C21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5338266.1501706745</v>
       </c>
       <c r="E21" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>99397.047489380668</v>
       </c>
     </row>
@@ -1648,19 +1676,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5437663.197660055</v>
       </c>
       <c r="C22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6062663.197660055</v>
       </c>
       <c r="E22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>112885.12127681576</v>
       </c>
     </row>
@@ -1669,19 +1697,19 @@
         <v>10</v>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6175548.3189368704</v>
       </c>
       <c r="C23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6800548.3189368704</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>126624.33928843815</v>
       </c>
     </row>
@@ -1690,19 +1718,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6927172.6582253082</v>
       </c>
       <c r="C24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7552172.6582253082</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>140619.37776062795</v>
       </c>
     </row>
@@ -1711,19 +1739,19 @@
         <v>12</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7692792.0359859364</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8317792.0359859364</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>154875.00000000061</v>
       </c>
     </row>
@@ -1732,19 +1760,19 @@
         <v>13</v>
       </c>
       <c r="B26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8472667.0359859373</v>
       </c>
       <c r="C26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9097667.0359859373</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>169396.05800463053</v>
       </c>
     </row>
@@ -1753,19 +1781,19 @@
         <v>14</v>
       </c>
       <c r="B27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9267063.0939905681</v>
       </c>
       <c r="C27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9892063.0939905681</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>184187.49411546186</v>
       </c>
     </row>
@@ -1774,19 +1802,19 @@
         <v>15</v>
       </c>
       <c r="B28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10076250.588106031</v>
       </c>
       <c r="C28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10701250.588106031</v>
       </c>
       <c r="E28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>199254.34269846778</v>
       </c>
     </row>
@@ -1795,19 +1823,19 @@
         <v>16</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10900504.930804498</v>
       </c>
       <c r="C29" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11525504.930804498</v>
       </c>
       <c r="E29" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>214601.73185813127</v>
       </c>
     </row>
@@ -1816,19 +1844,19 @@
         <v>17</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11740106.662662629</v>
       </c>
       <c r="C30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12365106.662662629</v>
       </c>
       <c r="E30" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>230234.88518283027</v>
       </c>
     </row>
@@ -1837,19 +1865,19 @@
         <v>18</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12595341.547845459</v>
       </c>
       <c r="C31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13220341.547845459</v>
       </c>
       <c r="E31" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>246159.12352272175</v>
       </c>
     </row>
@@ -1858,19 +1886,19 @@
         <v>19</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13466500.67136818</v>
       </c>
       <c r="C32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14091500.67136818</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>262379.86680072907</v>
       </c>
     </row>
@@ -1879,19 +1907,19 @@
         <v>20</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14353880.538168909</v>
       </c>
       <c r="C33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14978880.538168909</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>278902.6358572499</v>
       </c>
     </row>
@@ -1900,19 +1928,19 @@
         <v>21</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15257783.17402616</v>
       </c>
       <c r="C34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15882783.17402616</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>295733.05432921142</v>
       </c>
     </row>
@@ -1921,19 +1949,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16178516.22835537</v>
       </c>
       <c r="C35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16803516.22835537</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>312876.85056411382</v>
       </c>
     </row>
@@ -1942,19 +1970,19 @@
         <v>23</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17116393.078919485</v>
       </c>
       <c r="C36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17741393.078919485</v>
       </c>
       <c r="E36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>330339.85956971231</v>
       </c>
     </row>
@@ -1963,19 +1991,19 @@
         <v>24</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18071732.938489199</v>
       </c>
       <c r="C37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18696732.938489199</v>
       </c>
       <c r="E37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>348128.02500000154</v>
       </c>
     </row>
@@ -1984,19 +2012,19 @@
         <v>25</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19044860.963489201</v>
       </c>
       <c r="C38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19669860.963489201</v>
       </c>
       <c r="E38" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>366247.40117817878</v>
       </c>
     </row>
@@ -2005,19 +2033,19 @@
         <v>26</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20036108.364667378</v>
       </c>
       <c r="C39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20661108.364667378</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>384704.1551572741</v>
       </c>
     </row>
@@ -2026,19 +2054,19 @@
         <v>27</v>
       </c>
       <c r="B40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21045812.519824654</v>
       </c>
       <c r="C40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D40" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21670812.519824654</v>
       </c>
       <c r="E40" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>403504.56881914893</v>
       </c>
     </row>
@@ -2047,19 +2075,19 @@
         <v>28</v>
       </c>
       <c r="B41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22074317.088643804</v>
       </c>
       <c r="C41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D41" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22699317.088643804</v>
       </c>
       <c r="E41" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>422655.04101257707</v>
       </c>
     </row>
@@ -2068,19 +2096,19 @@
         <v>29</v>
       </c>
       <c r="B42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23121972.129656382</v>
       </c>
       <c r="C42" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D42" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23746972.129656382</v>
       </c>
       <c r="E42" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>442162.08973113651</v>
       </c>
     </row>
@@ -2089,19 +2117,19 @@
         <v>30</v>
       </c>
       <c r="B43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24189134.21938752</v>
       </c>
       <c r="C43" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D43" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24814134.21938752</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>462032.35433165316</v>
       </c>
     </row>
@@ -2110,19 +2138,19 @@
         <v>31</v>
       </c>
       <c r="B44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25276166.573719174</v>
       </c>
       <c r="C44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25901166.573719174</v>
       </c>
       <c r="E44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>482272.59779395076</v>
       </c>
     </row>
@@ -2131,19 +2159,19 @@
         <v>32</v>
       </c>
       <c r="B45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26383439.171513125</v>
       </c>
       <c r="C45" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D45" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27008439.171513125</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>502889.70902267745</v>
       </c>
     </row>
@@ -2152,19 +2180,19 @@
         <v>33</v>
       </c>
       <c r="B46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27511328.880535804</v>
       </c>
       <c r="C46" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D46" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28136328.880535804</v>
       </c>
       <c r="E46" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>523890.70519199106</v>
       </c>
     </row>
@@ -2173,19 +2201,19 @@
         <v>34</v>
       </c>
       <c r="B47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28660219.585727796</v>
       </c>
       <c r="C47" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D47" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29285219.585727796</v>
       </c>
       <c r="E47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>545282.73413390236</v>
       </c>
     </row>
@@ -2194,19 +2222,19 @@
         <v>35</v>
       </c>
       <c r="B48" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29830502.319861699</v>
       </c>
       <c r="C48" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D48" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30455502.319861699</v>
       </c>
       <c r="E48" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>567073.07677108818</v>
       </c>
     </row>
@@ -2215,19 +2243,19 @@
         <v>36</v>
       </c>
       <c r="B49" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31022575.396632787</v>
       </c>
       <c r="C49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D49" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31647575.396632787</v>
       </c>
       <c r="E49" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>589269.14959500311</v>
       </c>
     </row>
@@ -2236,19 +2264,19 @@
         <v>37</v>
       </c>
       <c r="B50" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32236844.54622779</v>
       </c>
       <c r="C50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D50" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32861844.54622779</v>
       </c>
       <c r="E50" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>611878.50719013263</v>
       </c>
     </row>
@@ -2257,19 +2285,19 @@
         <v>38</v>
       </c>
       <c r="B51" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33473723.053417925</v>
       </c>
       <c r="C51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34098723.053417921</v>
       </c>
       <c r="E51" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>634908.84480524773</v>
       </c>
     </row>
@@ -2278,19 +2306,19 @@
         <v>39</v>
       </c>
       <c r="B52" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34733631.898223169</v>
       </c>
       <c r="C52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35358631.898223169</v>
       </c>
       <c r="E52" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>658368.00097253523</v>
       </c>
     </row>
@@ -2299,19 +2327,19 @@
         <v>40</v>
       </c>
       <c r="B53" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36016999.899195701</v>
       </c>
       <c r="C53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36641999.899195701</v>
       </c>
       <c r="E53" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>682263.96017549478</v>
       </c>
     </row>
@@ -2320,19 +2348,19 @@
         <v>41</v>
       </c>
       <c r="B54" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37324263.859371193</v>
       </c>
       <c r="C54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37949263.859371193</v>
       </c>
       <c r="E54" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>706604.85556651314</v>
       </c>
     </row>
@@ -2341,19 +2369,19 @@
         <v>42</v>
       </c>
       <c r="B55" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38655868.714937709</v>
       </c>
       <c r="C55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D55" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39280868.714937709</v>
       </c>
       <c r="E55" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>731398.97173503786</v>
       </c>
     </row>
@@ -2362,19 +2390,19 @@
         <v>43</v>
       </c>
       <c r="B56" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40012267.686672747</v>
       </c>
       <c r="C56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D56" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40637267.686672747</v>
       </c>
       <c r="E56" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>756654.74752729281</v>
       </c>
     </row>
@@ -2383,19 +2411,19 @@
         <v>44</v>
       </c>
       <c r="B57" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41393922.434200041</v>
       </c>
       <c r="C57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42018922.434200041</v>
       </c>
       <c r="E57" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>782380.77891849808</v>
       </c>
     </row>
@@ -2404,19 +2432,19 @@
         <v>45</v>
       </c>
       <c r="B58" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42801303.213118538</v>
       </c>
       <c r="C58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43426303.213118538</v>
       </c>
       <c r="E58" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>808585.82193856756</v>
       </c>
     </row>
@@ -2425,19 +2453,19 @@
         <v>46</v>
       </c>
       <c r="B59" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44234889.035057105</v>
       </c>
       <c r="C59" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D59" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44859889.035057105</v>
       </c>
       <c r="E59" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>835278.7956522844</v>
       </c>
     </row>
@@ -2446,19 +2474,19 @@
         <v>47</v>
       </c>
       <c r="B60" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45695167.83070939</v>
       </c>
       <c r="C60" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D60" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46320167.83070939</v>
       </c>
       <c r="E60" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>862468.78519496496</v>
       </c>
     </row>
@@ -2467,19 +2495,19 @@
         <v>48</v>
       </c>
       <c r="B61" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47182636.615904354</v>
       </c>
       <c r="C61" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47807636.615904354</v>
       </c>
       <c r="E61" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>890165.04486464593</v>
       </c>
     </row>
@@ -2488,19 +2516,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48697801.660769001</v>
       </c>
       <c r="C62" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49322801.660769001</v>
       </c>
       <c r="E62" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>918377.00127184857</v>
       </c>
     </row>
@@ -2509,19 +2537,19 @@
         <v>50</v>
       </c>
       <c r="B63" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50241178.662040852</v>
       </c>
       <c r="C63" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50866178.662040852</v>
       </c>
       <c r="E63" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>947114.25654798944</v>
       </c>
     </row>
@@ -2530,19 +2558,19 @@
         <v>51</v>
       </c>
       <c r="B64" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51813292.918588839</v>
       </c>
       <c r="C64" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52438292.918588839</v>
       </c>
       <c r="E64" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>976386.59161353065</v>
       </c>
     </row>
@@ -2551,19 +2579,19 @@
         <v>52</v>
       </c>
       <c r="B65" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53414679.510202371</v>
       </c>
       <c r="C65" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54039679.510202371</v>
       </c>
       <c r="E65" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1006203.9695069836</v>
       </c>
     </row>
@@ -2572,19 +2600,19 @@
         <v>53</v>
       </c>
       <c r="B66" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55045883.479709357</v>
       </c>
       <c r="C66" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55670883.479709357</v>
       </c>
       <c r="E66" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1036576.5387758967</v>
       </c>
     </row>
@@ -2593,19 +2621,19 @@
         <v>54</v>
       </c>
       <c r="B67" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56707460.018485256</v>
       </c>
       <c r="C67" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D67" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57332460.018485256</v>
       </c>
       <c r="E67" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1067514.6369309817</v>
       </c>
     </row>
@@ -2614,19 +2642,19 @@
         <v>55</v>
       </c>
       <c r="B68" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58399974.655416235</v>
       </c>
       <c r="C68" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D68" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59024974.655416235</v>
       </c>
       <c r="E68" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1099028.7939645576</v>
       </c>
     </row>
@@ -2635,19 +2663,19 @@
         <v>56</v>
       </c>
       <c r="B69" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60124003.449380793</v>
       </c>
       <c r="C69" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D69" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60749003.449380793</v>
       </c>
       <c r="E69" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1131129.7359345034</v>
       </c>
     </row>
@@ -2656,19 +2684,19 @@
         <v>57</v>
       </c>
       <c r="B70" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61880133.185315296</v>
       </c>
       <c r="C70" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D70" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62505133.185315296</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1163828.388614946</v>
       </c>
     </row>
@@ -2677,19 +2705,19 @@
         <v>58</v>
       </c>
       <c r="B71" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63668961.573930241</v>
       </c>
       <c r="C71" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D71" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64293961.573930241</v>
       </c>
       <c r="E71" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1197135.8812149221</v>
       </c>
     </row>
@@ -2698,19 +2726,19 @@
         <v>59</v>
       </c>
       <c r="B72" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65491097.455145165</v>
       </c>
       <c r="C72" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D72" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66116097.455145165</v>
       </c>
       <c r="E72" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1231063.5501662788</v>
       </c>
     </row>
@@ -2719,19 +2747,19 @@
         <v>60</v>
       </c>
       <c r="B73" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67347161.005311444</v>
       </c>
       <c r="C73" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D73" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67972161.005311444</v>
       </c>
       <c r="E73" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1265622.9429821067</v>
       </c>
     </row>
@@ -2740,19 +2768,19 @@
         <v>61</v>
       </c>
       <c r="B74" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69237783.948293552</v>
       </c>
       <c r="C74" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D74" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69862783.948293552</v>
       </c>
       <c r="E74" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1300825.8221870144</v>
       </c>
     </row>
@@ -2761,19 +2789,19 @@
         <v>62</v>
       </c>
       <c r="B75" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71163609.770480573</v>
       </c>
       <c r="C75" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D75" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71788609.770480573</v>
       </c>
       <c r="E75" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1336684.1693205829</v>
       </c>
     </row>
@@ -2782,19 +2810,19 @@
         <v>63</v>
       </c>
       <c r="B76" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73125293.939801157</v>
       </c>
       <c r="C76" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D76" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73750293.939801157</v>
       </c>
       <c r="E76" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1373210.1890153654</v>
       </c>
     </row>
@@ -2803,19 +2831,19 @@
         <v>64</v>
       </c>
       <c r="B77" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75123504.128816515</v>
       </c>
       <c r="C77" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D77" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75748504.128816515</v>
       </c>
       <c r="E77" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1410416.3131508159</v>
       </c>
     </row>
@@ -2824,19 +2852,19 @@
         <v>65</v>
       </c>
       <c r="B78" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77158920.441967338</v>
       </c>
       <c r="C78" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625000</v>
       </c>
       <c r="D78" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77783920.441967338</v>
       </c>
       <c r="E78" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1448315.2050845656</v>
       </c>
     </row>
@@ -2845,19 +2873,19 @@
         <v>66</v>
       </c>
       <c r="B79" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79232235.647051901</v>
       </c>
       <c r="C79" s="17">
-        <f t="shared" ref="C79:C142" si="4">C78</f>
+        <f t="shared" ref="C79:C142" si="4">$E$9</f>
         <v>625000</v>
       </c>
       <c r="D79" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79857235.647051901</v>
       </c>
       <c r="E79" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E79:E142" si="5">D79*$E$11</f>
         <v>1486919.7639624807</v>
       </c>
     </row>
@@ -2866,7 +2894,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81344155.411014378</v>
       </c>
       <c r="C80" s="17">
@@ -2874,11 +2902,11 @@
         <v>625000</v>
       </c>
       <c r="D80" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81969155.411014378</v>
       </c>
       <c r="E80" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1526243.1291089766</v>
       </c>
     </row>
@@ -2887,7 +2915,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83495398.540123358</v>
       </c>
       <c r="C81" s="17">
@@ -2895,11 +2923,11 @@
         <v>625000</v>
       </c>
       <c r="D81" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84120398.540123358</v>
       </c>
       <c r="E81" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1566298.6844990752</v>
       </c>
     </row>
@@ -2908,7 +2936,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85686697.224622428</v>
       </c>
       <c r="C82" s="17">
@@ -2916,11 +2944,11 @@
         <v>625000</v>
       </c>
       <c r="D82" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86311697.224622428</v>
       </c>
       <c r="E82" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1607100.0633137315</v>
       </c>
     </row>
@@ -2929,7 +2957,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87918797.287936166</v>
       </c>
       <c r="C83" s="17">
@@ -2937,11 +2965,11 @@
         <v>625000</v>
       </c>
       <c r="D83" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88543797.287936166</v>
       </c>
       <c r="E83" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1648661.1525799818</v>
       </c>
     </row>
@@ -2950,7 +2978,7 @@
         <v>71</v>
       </c>
       <c r="B84" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90192458.440516144</v>
       </c>
       <c r="C84" s="17">
@@ -2958,11 +2986,11 @@
         <v>625000</v>
       </c>
       <c r="D84" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90817458.440516144</v>
       </c>
       <c r="E84" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1690996.0978974847</v>
       </c>
     </row>
@@ -2971,7 +2999,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92508454.538413629</v>
       </c>
       <c r="C85" s="17">
@@ -2979,11 +3007,11 @@
         <v>625000</v>
       </c>
       <c r="D85" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93133454.538413629</v>
       </c>
       <c r="E85" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1734119.3082530748</v>
       </c>
     </row>
@@ -2992,7 +3020,7 @@
         <v>73</v>
       </c>
       <c r="B86" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94867573.846666709</v>
       </c>
       <c r="C86" s="17">
@@ -3000,11 +3028,11 @@
         <v>625000</v>
       </c>
       <c r="D86" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95492573.846666709</v>
       </c>
       <c r="E86" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1778045.4609249586</v>
       </c>
     </row>
@@ -3013,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97270619.307591662</v>
       </c>
       <c r="C87" s="17">
@@ -3021,11 +3049,11 @@
         <v>625000</v>
       </c>
       <c r="D87" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>97895619.307591662</v>
       </c>
       <c r="E87" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1822789.5064782251</v>
       </c>
     </row>
@@ -3034,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99718408.814069882</v>
       </c>
       <c r="C88" s="17">
@@ -3042,11 +3070,11 @@
         <v>625000</v>
       </c>
       <c r="D88" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100343408.81406988</v>
       </c>
       <c r="E88" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1868366.6738533746</v>
       </c>
     </row>
@@ -3055,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102211775.48792325</v>
       </c>
       <c r="C89" s="17">
@@ -3063,11 +3091,11 @@
         <v>625000</v>
       </c>
       <c r="D89" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102836775.48792325</v>
       </c>
       <c r="E89" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1914792.4755495898</v>
       </c>
     </row>
@@ -3076,7 +3104,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104751567.96347284</v>
       </c>
       <c r="C90" s="17">
@@ -3084,11 +3112,11 @@
         <v>625000</v>
       </c>
       <c r="D90" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>105376567.96347284</v>
       </c>
       <c r="E90" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1962082.7129045227</v>
       </c>
     </row>
@@ -3097,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107338650.67637737</v>
       </c>
       <c r="C91" s="17">
@@ -3105,11 +3133,11 @@
         <v>625000</v>
       </c>
       <c r="D91" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107963650.67637737</v>
       </c>
       <c r="E91" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2010253.4814723853</v>
       </c>
     </row>
@@ -3118,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109973904.15784976</v>
       </c>
       <c r="C92" s="17">
@@ -3126,11 +3154,11 @@
         <v>625000</v>
       </c>
       <c r="D92" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110598904.15784976</v>
       </c>
       <c r="E92" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2059321.1765021831</v>
       </c>
     </row>
@@ -3139,7 +3167,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112658225.33435194</v>
       </c>
       <c r="C93" s="17">
@@ -3147,11 +3175,11 @@
         <v>625000</v>
       </c>
       <c r="D93" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113283225.33435194</v>
       </c>
       <c r="E93" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2109302.4985179477</v>
       </c>
     </row>
@@ -3160,7 +3188,7 @@
         <v>81</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115392527.83286989</v>
       </c>
       <c r="C94" s="17">
@@ -3168,11 +3196,11 @@
         <v>625000</v>
       </c>
       <c r="D94" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116017527.83286989</v>
       </c>
       <c r="E94" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2160214.4590028762</v>
       </c>
     </row>
@@ -3181,7 +3209,7 @@
         <v>82</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118177742.29187277</v>
       </c>
       <c r="C95" s="17">
@@ -3189,11 +3217,11 @@
         <v>625000</v>
       </c>
       <c r="D95" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>118802742.29187277</v>
       </c>
       <c r="E95" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2212074.3861893034</v>
       </c>
     </row>
@@ -3202,7 +3230,7 @@
         <v>83</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121014816.67806207</v>
       </c>
       <c r="C96" s="17">
@@ -3210,11 +3238,11 @@
         <v>625000</v>
       </c>
       <c r="D96" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121639816.67806207</v>
       </c>
       <c r="E96" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2264899.9309564834</v>
       </c>
     </row>
@@ -3223,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123904716.60901855</v>
       </c>
       <c r="C97" s="17">
@@ -3231,11 +3259,11 @@
         <v>625000</v>
       </c>
       <c r="D97" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>124529716.60901855</v>
       </c>
       <c r="E97" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2318709.0728381891</v>
       </c>
     </row>
@@ -3244,7 +3272,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126848425.68185674</v>
       </c>
       <c r="C98" s="17">
@@ -3252,11 +3280,11 @@
         <v>625000</v>
       </c>
       <c r="D98" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>127473425.68185674</v>
       </c>
       <c r="E98" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2373520.1261421652</v>
       </c>
     </row>
@@ -3265,7 +3293,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129846945.8079989</v>
       </c>
       <c r="C99" s="17">
@@ -3273,11 +3301,11 @@
         <v>625000</v>
       </c>
       <c r="D99" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130471945.8079989</v>
       </c>
       <c r="E99" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2429351.7461835314</v>
       </c>
     </row>
@@ -3286,7 +3314,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>132901297.55418243</v>
       </c>
       <c r="C100" s="17">
@@ -3294,11 +3322,11 @@
         <v>625000</v>
       </c>
       <c r="D100" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>133526297.55418243</v>
       </c>
       <c r="E100" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2486222.9356342433</v>
       </c>
     </row>
@@ -3307,7 +3335,7 @@
         <v>88</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>136012520.48981667</v>
       </c>
       <c r="C101" s="17">
@@ -3315,11 +3343,11 @@
         <v>625000</v>
       </c>
       <c r="D101" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>136637520.48981667</v>
       </c>
       <c r="E101" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2544153.0509907808</v>
       </c>
     </row>
@@ -3328,7 +3356,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>139181673.54080746</v>
       </c>
       <c r="C102" s="17">
@@ -3336,11 +3364,11 @@
         <v>625000</v>
       </c>
       <c r="D102" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139806673.54080746</v>
       </c>
       <c r="E102" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2603161.8091622661</v>
       </c>
     </row>
@@ -3349,7 +3377,7 @@
         <v>90</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>142409835.34996971</v>
       </c>
       <c r="C103" s="17">
@@ -3357,11 +3385,11 @@
         <v>625000</v>
       </c>
       <c r="D103" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143034835.34996971</v>
       </c>
       <c r="E103" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2663269.2941812449</v>
       </c>
     </row>
@@ -3370,7 +3398,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145698104.64415097</v>
       </c>
       <c r="C104" s="17">
@@ -3378,11 +3406,11 @@
         <v>625000</v>
       </c>
       <c r="D104" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>146323104.64415097</v>
       </c>
       <c r="E104" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2724495.9640394268</v>
       </c>
     </row>
@@ -3391,7 +3419,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>149047600.60819039</v>
       </c>
       <c r="C105" s="17">
@@ -3399,11 +3427,11 @@
         <v>625000</v>
       </c>
       <c r="D105" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>149672600.60819039</v>
       </c>
       <c r="E105" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2786862.657650698</v>
       </c>
     </row>
@@ -3412,7 +3440,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152459463.2658411</v>
       </c>
       <c r="C106" s="17">
@@ -3420,11 +3448,11 @@
         <v>625000</v>
       </c>
       <c r="D106" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153084463.2658411</v>
       </c>
       <c r="E106" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2850390.6019437918</v>
       </c>
     </row>
@@ -3433,7 +3461,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>155934853.86778489</v>
       </c>
       <c r="C107" s="17">
@@ -3441,11 +3469,11 @@
         <v>625000</v>
       </c>
       <c r="D107" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>156559853.86778489</v>
       </c>
       <c r="E107" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2915101.4190870156</v>
       </c>
     </row>
@@ -3454,7 +3482,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>159474955.28687191</v>
       </c>
       <c r="C108" s="17">
@@ -3462,11 +3490,11 @@
         <v>625000</v>
       </c>
       <c r="D108" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160099955.28687191</v>
       </c>
       <c r="E108" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2981017.133847503</v>
       </c>
     </row>
@@ -3475,7 +3503,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>163080972.42071941</v>
       </c>
       <c r="C109" s="17">
@@ -3483,11 +3511,11 @@
         <v>625000</v>
       </c>
       <c r="D109" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>163705972.42071941</v>
       </c>
       <c r="E109" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3048160.1810874953</v>
       </c>
     </row>
@@ -3496,7 +3524,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>166754132.60180691</v>
       </c>
       <c r="C110" s="17">
@@ -3504,11 +3532,11 @@
         <v>625000</v>
       </c>
       <c r="D110" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>167379132.60180691</v>
       </c>
       <c r="E110" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3116553.4134001969</v>
       </c>
     </row>
@@ -3517,7 +3545,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>170495686.01520711</v>
       </c>
       <c r="C111" s="17">
@@ -3525,11 +3553,11 @@
         <v>625000</v>
       </c>
       <c r="D111" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171120686.01520711</v>
       </c>
       <c r="E111" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3186220.108887814</v>
       </c>
     </row>
@@ -3538,7 +3566,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>174306906.12409493</v>
       </c>
       <c r="C112" s="17">
@@ -3546,11 +3574,11 @@
         <v>625000</v>
       </c>
       <c r="D112" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>174931906.12409493</v>
       </c>
       <c r="E112" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3257183.9790844121</v>
       </c>
     </row>
@@ -3559,7 +3587,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>178189090.10317934</v>
       </c>
       <c r="C113" s="17">
@@ -3567,11 +3595,11 @@
         <v>625000</v>
       </c>
       <c r="D113" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>178814090.10317934</v>
       </c>
       <c r="E113" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3329469.1770262998</v>
       </c>
     </row>
@@ -3580,7 +3608,7 @@
         <v>101</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>182143559.28020564</v>
       </c>
       <c r="C114" s="17">
@@ -3588,11 +3616,11 @@
         <v>625000</v>
       </c>
       <c r="D114" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>182768559.28020564</v>
       </c>
       <c r="E114" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3403100.305472679</v>
       </c>
     </row>
@@ -3601,7 +3629,7 @@
         <v>102</v>
       </c>
       <c r="B115" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>186171659.58567831</v>
       </c>
       <c r="C115" s="17">
@@ -3609,11 +3637,11 @@
         <v>625000</v>
       </c>
       <c r="D115" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>186796659.58567831</v>
       </c>
       <c r="E115" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3478102.4252793612</v>
       </c>
     </row>
@@ -3622,7 +3650,7 @@
         <v>103</v>
       </c>
       <c r="B116" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>190274762.01095766</v>
       </c>
       <c r="C116" s="17">
@@ -3630,11 +3658,11 @@
         <v>625000</v>
       </c>
       <c r="D116" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190899762.01095766</v>
       </c>
       <c r="E116" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3554501.0639283997</v>
       </c>
     </row>
@@ -3643,7 +3671,7 @@
         <v>104</v>
       </c>
       <c r="B117" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>194454263.07488605</v>
       </c>
       <c r="C117" s="17">
@@ -3651,11 +3679,11 @@
         <v>625000</v>
       </c>
       <c r="D117" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>195079263.07488605</v>
       </c>
       <c r="E117" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3632322.2242165441</v>
       </c>
     </row>
@@ -3664,7 +3692,7 @@
         <v>105</v>
       </c>
       <c r="B118" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>198711585.2991026</v>
       </c>
       <c r="C118" s="17">
@@ -3672,11 +3700,11 @@
         <v>625000</v>
       </c>
       <c r="D118" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199336585.2991026</v>
       </c>
       <c r="E118" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3711592.3931054669</v>
       </c>
     </row>
@@ -3685,7 +3713,7 @@
         <v>106</v>
       </c>
       <c r="B119" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203048177.69220808</v>
       </c>
       <c r="C119" s="17">
@@ -3693,11 +3721,11 @@
         <v>625000</v>
       </c>
       <c r="D119" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>203673177.69220808</v>
       </c>
       <c r="E119" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3792338.5507367812</v>
       </c>
     </row>
@@ -3706,7 +3734,7 @@
         <v>107</v>
       </c>
       <c r="B120" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>207465516.24294487</v>
       </c>
       <c r="C120" s="17">
@@ -3714,11 +3742,11 @@
         <v>625000</v>
       </c>
       <c r="D120" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>208090516.24294487</v>
       </c>
       <c r="E120" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3874588.1796149178</v>
       </c>
     </row>
@@ -3727,7 +3755,7 @@
         <v>108</v>
       </c>
       <c r="B121" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>211965104.4225598</v>
       </c>
       <c r="C121" s="17">
@@ -3735,11 +3763,11 @@
         <v>625000</v>
       </c>
       <c r="D121" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>212590104.4225598</v>
       </c>
       <c r="E121" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3958369.2739609806</v>
       </c>
     </row>
@@ -3748,7 +3776,7 @@
         <v>109</v>
       </c>
       <c r="B122" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>216548473.69652078</v>
       </c>
       <c r="C122" s="17">
@@ -3756,11 +3784,11 @@
         <v>625000</v>
       </c>
       <c r="D122" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>217173473.69652078</v>
       </c>
       <c r="E122" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4043710.3492407696</v>
       </c>
     </row>
@@ -3769,7 +3797,7 @@
         <v>110</v>
       </c>
       <c r="B123" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>221217184.04576156</v>
       </c>
       <c r="C123" s="17">
@@ -3777,11 +3805,11 @@
         <v>625000</v>
       </c>
       <c r="D123" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>221842184.04576156</v>
       </c>
       <c r="E123" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4130640.4518702184</v>
       </c>
     </row>
@@ -3790,7 +3818,7 @@
         <v>111</v>
       </c>
       <c r="B124" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225972824.49763179</v>
       </c>
       <c r="C124" s="17">
@@ -3798,11 +3826,11 @@
         <v>625000</v>
       </c>
       <c r="D124" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>226597824.49763179</v>
       </c>
       <c r="E124" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4219189.1691015335</v>
       </c>
     </row>
@@ -3811,7 +3839,7 @@
         <v>112</v>
       </c>
       <c r="B125" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>230817013.66673332</v>
       </c>
       <c r="C125" s="17">
@@ -3819,11 +3847,11 @@
         <v>625000</v>
       </c>
       <c r="D125" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>231442013.66673332</v>
       </c>
       <c r="E125" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4309386.6390934214</v>
       </c>
     </row>
@@ -3832,7 +3860,7 @@
         <v>113</v>
       </c>
       <c r="B126" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>235751400.30582675</v>
       </c>
       <c r="C126" s="17">
@@ -3840,11 +3868,11 @@
         <v>625000</v>
       </c>
       <c r="D126" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>236376400.30582675</v>
       </c>
       <c r="E126" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4401263.5611688141</v>
       </c>
     </row>
@@ -3853,7 +3881,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240777663.86699557</v>
       </c>
       <c r="C127" s="17">
@@ -3861,11 +3889,11 @@
         <v>625000</v>
       </c>
       <c r="D127" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241402663.86699557</v>
       </c>
       <c r="E127" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4494851.2062635915</v>
       </c>
     </row>
@@ -3874,7 +3902,7 @@
         <v>115</v>
       </c>
       <c r="B128" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>245897515.07325917</v>
       </c>
       <c r="C128" s="17">
@@ -3882,11 +3910,11 @@
         <v>625000</v>
       </c>
       <c r="D128" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246522515.07325917</v>
       </c>
       <c r="E128" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4590181.4275698634</v>
       </c>
     </row>
@@ -3895,7 +3923,7 @@
         <v>116</v>
       </c>
       <c r="B129" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>251112696.50082904</v>
       </c>
       <c r="C129" s="17">
@@ -3903,11 +3931,11 @@
         <v>625000</v>
       </c>
       <c r="D129" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>251737696.50082904</v>
       </c>
       <c r="E129" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4687286.6713774102</v>
       </c>
     </row>
@@ -3916,7 +3944,7 @@
         <v>117</v>
       </c>
       <c r="B130" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>256424983.17220646</v>
       </c>
       <c r="C130" s="17">
@@ -3924,11 +3952,11 @@
         <v>625000</v>
       </c>
       <c r="D130" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>257049983.17220646</v>
       </c>
       <c r="E130" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4786199.9881170075</v>
       </c>
     </row>
@@ -3937,7 +3965,7 @@
         <v>118</v>
       </c>
       <c r="B131" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>261836183.16032347</v>
       </c>
       <c r="C131" s="17">
@@ -3945,11 +3973,11 @@
         <v>625000</v>
       </c>
       <c r="D131" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>262461183.16032347</v>
       </c>
       <c r="E131" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4886955.0436093621</v>
       </c>
     </row>
@@ -3958,7 +3986,7 @@
         <v>119</v>
       </c>
       <c r="B132" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>267348138.20393282</v>
       </c>
       <c r="C132" s="17">
@@ -3966,11 +3994,11 @@
         <v>625000</v>
       </c>
       <c r="D132" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>267973138.20393282</v>
       </c>
       <c r="E132" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4989586.1305235</v>
       </c>
     </row>
@@ -3979,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="B133" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>272962724.33445632</v>
       </c>
       <c r="C133" s="17">
@@ -3987,11 +4015,11 @@
         <v>625000</v>
       </c>
       <c r="D133" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>273587724.33445632</v>
       </c>
       <c r="E133" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5094128.180048517</v>
       </c>
     </row>
@@ -4000,7 +4028,7 @@
         <v>121</v>
       </c>
       <c r="B134" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278681852.51450485</v>
       </c>
       <c r="C134" s="17">
@@ -4008,11 +4036,11 @@
         <v>625000</v>
       </c>
       <c r="D134" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279306852.51450485</v>
       </c>
       <c r="E134" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5200616.7737826388</v>
       </c>
     </row>
@@ -4021,7 +4049,7 @@
         <v>122</v>
       </c>
       <c r="B135" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>284507469.28828746</v>
       </c>
       <c r="C135" s="17">
@@ -4029,11 +4057,11 @@
         <v>625000</v>
       </c>
       <c r="D135" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>285132469.28828746</v>
       </c>
       <c r="E135" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5309088.155843664</v>
       </c>
     </row>
@@ -4042,7 +4070,7 @@
         <v>123</v>
       </c>
       <c r="B136" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>290441557.44413114</v>
       </c>
       <c r="C136" s="17">
@@ -4050,11 +4078,11 @@
         <v>625000</v>
       </c>
       <c r="D136" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>291066557.44413114</v>
       </c>
       <c r="E136" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5419579.2452048995</v>
       </c>
     </row>
@@ -4063,7 +4091,7 @@
         <v>124</v>
       </c>
       <c r="B137" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>296486136.68933606</v>
       </c>
       <c r="C137" s="17">
@@ -4071,11 +4099,11 @@
         <v>625000</v>
       </c>
       <c r="D137" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>297111136.68933606</v>
       </c>
       <c r="E137" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5532127.6482607769</v>
       </c>
     </row>
@@ -4084,7 +4112,7 @@
         <v>125</v>
       </c>
       <c r="B138" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>302643264.33759683</v>
       </c>
       <c r="C138" s="17">
@@ -4092,11 +4120,11 @@
         <v>625000</v>
       </c>
       <c r="D138" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>303268264.33759683</v>
       </c>
       <c r="E138" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5646771.6716264514</v>
       </c>
     </row>
@@ -4105,7 +4133,7 @@
         <v>126</v>
       </c>
       <c r="B139" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>308915036.00922328</v>
       </c>
       <c r="C139" s="17">
@@ -4113,11 +4141,11 @@
         <v>625000</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>309540036.00922328</v>
       </c>
       <c r="E139" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5763550.3351757154</v>
       </c>
     </row>
@@ -4126,7 +4154,7 @@
         <v>127</v>
       </c>
       <c r="B140" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>315303586.34439898</v>
       </c>
       <c r="C140" s="17">
@@ -4134,11 +4162,11 @@
         <v>625000</v>
       </c>
       <c r="D140" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>315928586.34439898</v>
       </c>
       <c r="E140" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5882503.3853216805</v>
       </c>
     </row>
@@ -4147,7 +4175,7 @@
         <v>128</v>
       </c>
       <c r="B141" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>321811089.72972065</v>
       </c>
       <c r="C141" s="17">
@@ -4155,11 +4183,11 @@
         <v>625000</v>
       </c>
       <c r="D141" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>322436089.72972065</v>
       </c>
       <c r="E141" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6003671.3085447373</v>
       </c>
     </row>
@@ -4168,7 +4196,7 @@
         <v>129</v>
       </c>
       <c r="B142" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>328439761.03826541</v>
       </c>
       <c r="C142" s="17">
@@ -4176,11 +4204,11 @@
         <v>625000</v>
       </c>
       <c r="D142" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>329064761.03826541</v>
       </c>
       <c r="E142" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6127095.3451724071</v>
       </c>
     </row>
@@ -4189,19 +4217,19 @@
         <v>130</v>
       </c>
       <c r="B143" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>335191856.38343781</v>
       </c>
       <c r="C143" s="17">
-        <f t="shared" ref="C143:C206" si="5">C142</f>
+        <f t="shared" ref="C143:C206" si="6">$E$9</f>
         <v>625000</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>335816856.38343781</v>
       </c>
       <c r="E143" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E143:E206" si="7">D143*$E$11</f>
         <v>6252817.5034157671</v>
       </c>
     </row>
@@ -4210,19 +4238,19 @@
         <v>131</v>
       </c>
       <c r="B144" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>342069673.88685358</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>342694673.88685358</v>
       </c>
       <c r="E144" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6380880.5736672292</v>
       </c>
     </row>
@@ -4231,19 +4259,19 @@
         <v>132</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>349075554.4605208</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349700554.4605208</v>
       </c>
       <c r="E145" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6511328.1430645455</v>
       </c>
     </row>
@@ -4252,19 +4280,19 @@
         <v>133</v>
       </c>
       <c r="B146" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>356211882.60358536</v>
       </c>
       <c r="C146" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D146" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>356836882.60358536</v>
       </c>
       <c r="E146" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6644204.6103259819</v>
       </c>
     </row>
@@ -4273,19 +4301,19 @@
         <v>134</v>
       </c>
       <c r="B147" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>363481087.21391135</v>
       </c>
       <c r="C147" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D147" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>364106087.21391135</v>
       </c>
       <c r="E147" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6779555.2008617306</v>
       </c>
     </row>
@@ -4294,19 +4322,19 @@
         <v>135</v>
       </c>
       <c r="B148" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>370885642.41477311</v>
       </c>
       <c r="C148" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D148" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>371510642.41477311</v>
       </c>
       <c r="E148" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6917425.9821666805</v>
       </c>
     </row>
@@ -4315,19 +4343,19 @@
         <v>136</v>
       </c>
       <c r="B149" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>378428068.39693981</v>
       </c>
       <c r="C149" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D149" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>379053068.39693981</v>
       </c>
       <c r="E149" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7057863.8794998052</v>
       </c>
     </row>
@@ -4336,19 +4364,19 @@
         <v>137</v>
       </c>
       <c r="B150" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>386110932.27643961</v>
       </c>
       <c r="C150" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D150" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>386735932.27643961</v>
       </c>
       <c r="E150" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7200916.691855493</v>
       </c>
     </row>
@@ -4357,19 +4385,19 @@
         <v>138</v>
       </c>
       <c r="B151" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>393936848.9682951</v>
       </c>
       <c r="C151" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D151" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>394561848.9682951</v>
       </c>
       <c r="E151" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7346633.1082322653</v>
       </c>
     </row>
@@ -4378,19 +4406,19 @@
         <v>139</v>
       </c>
       <c r="B152" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>401908482.07652736</v>
       </c>
       <c r="C152" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D152" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>402533482.07652736</v>
       </c>
       <c r="E152" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7495062.7242043996</v>
       </c>
     </row>
@@ -4399,19 +4427,19 @@
         <v>140</v>
       </c>
       <c r="B153" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>410028544.80073178</v>
       </c>
       <c r="C153" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D153" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>410653544.80073178</v>
       </c>
       <c r="E153" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7646256.0588021306</v>
       </c>
     </row>
@@ -4420,19 +4448,19 @@
         <v>141</v>
       </c>
       <c r="B154" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>418299800.85953391</v>
       </c>
       <c r="C154" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D154" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>418924800.85953391</v>
       </c>
       <c r="E154" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7800264.5717061376</v>
       </c>
     </row>
@@ -4441,19 +4469,19 @@
         <v>142</v>
       </c>
       <c r="B155" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>426725065.43124002</v>
       </c>
       <c r="C155" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D155" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>427350065.43124002</v>
       </c>
       <c r="E155" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7957140.6807622015</v>
       </c>
     </row>
@@ -4462,19 +4490,19 @@
         <v>143</v>
       </c>
       <c r="B156" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>435307206.11200225</v>
       </c>
       <c r="C156" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D156" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>435932206.11200225</v>
       </c>
       <c r="E156" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8116937.779821977</v>
       </c>
     </row>
@@ -4483,19 +4511,19 @@
         <v>144</v>
       </c>
       <c r="B157" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>444049143.89182425</v>
       </c>
       <c r="C157" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D157" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>444674143.89182425</v>
       </c>
       <c r="E157" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8279710.2569159484</v>
       </c>
     </row>
@@ -4504,19 +4532,19 @@
         <v>145</v>
       </c>
       <c r="B158" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>452953854.14874017</v>
       </c>
       <c r="C158" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D158" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>453578854.14874017</v>
       </c>
       <c r="E158" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8445513.5127647687</v>
       </c>
     </row>
@@ -4525,19 +4553,19 @@
         <v>146</v>
       </c>
       <c r="B159" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>462024367.66150492</v>
       </c>
       <c r="C159" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D159" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>462649367.66150492</v>
       </c>
       <c r="E159" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8614403.9796352759</v>
       </c>
     </row>
@@ -4546,19 +4574,19 @@
         <v>147</v>
       </c>
       <c r="B160" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>471263771.64114022</v>
       </c>
       <c r="C160" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D160" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>471888771.64114022</v>
       </c>
       <c r="E160" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8786439.1405475922</v>
       </c>
     </row>
@@ -4567,19 +4595,19 @@
         <v>148</v>
       </c>
       <c r="B161" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>480675210.7816878</v>
       </c>
       <c r="C161" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D161" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>481300210.7816878</v>
       </c>
       <c r="E161" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8961677.5488398634</v>
       </c>
     </row>
@@ -4588,19 +4616,19 @@
         <v>149</v>
       </c>
       <c r="B162" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>490261888.33052766</v>
       </c>
       <c r="C162" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D162" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>490886888.33052766</v>
       </c>
       <c r="E162" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9140178.8480972927</v>
       </c>
     </row>
@@ -4609,19 +4637,19 @@
         <v>150</v>
       </c>
       <c r="B163" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>500027067.17862493</v>
       </c>
       <c r="C163" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D163" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>500652067.17862493</v>
       </c>
       <c r="E163" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9322003.7924522273</v>
       </c>
     </row>
@@ -4630,19 +4658,19 @@
         <v>151</v>
       </c>
       <c r="B164" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>509974070.97107714</v>
       </c>
       <c r="C164" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D164" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>510599070.97107714</v>
       </c>
       <c r="E164" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9507214.2672622576</v>
       </c>
     </row>
@@ -4651,19 +4679,19 @@
         <v>152</v>
       </c>
       <c r="B165" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>520106285.23833942</v>
       </c>
       <c r="C165" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D165" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>520731285.23833942</v>
       </c>
       <c r="E165" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9695873.3101733066</v>
       </c>
     </row>
@@ -4672,19 +4700,19 @@
         <v>153</v>
       </c>
       <c r="B166" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>530427158.54851276</v>
       </c>
       <c r="C166" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D166" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>531052158.54851276</v>
       </c>
       <c r="E166" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9888045.1325749271</v>
       </c>
     </row>
@@ -4693,19 +4721,19 @@
         <v>154</v>
       </c>
       <c r="B167" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>540940203.68108773</v>
       </c>
       <c r="C167" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D167" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>541565203.68108773</v>
       </c>
       <c r="E167" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10083795.141455086</v>
       </c>
     </row>
@@ -4714,19 +4742,19 @@
         <v>155</v>
       </c>
       <c r="B168" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>551648998.82254279</v>
       </c>
       <c r="C168" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D168" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>552273998.82254279</v>
       </c>
       <c r="E168" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10283189.961661872</v>
       </c>
     </row>
@@ -4735,19 +4763,19 @@
         <v>156</v>
       </c>
       <c r="B169" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>562557188.7842046</v>
       </c>
       <c r="C169" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D169" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>563182188.7842046</v>
       </c>
       <c r="E169" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10486297.458579728</v>
       </c>
     </row>
@@ -4756,19 +4784,19 @@
         <v>157</v>
       </c>
       <c r="B170" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>573668486.24278438</v>
       </c>
       <c r="C170" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D170" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>574293486.24278438</v>
       </c>
       <c r="E170" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10693186.761227887</v>
       </c>
     </row>
@@ -4777,19 +4805,19 @@
         <v>158</v>
       </c>
       <c r="B171" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>584986673.00401223</v>
       </c>
       <c r="C171" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D171" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>585611673.00401223</v>
       </c>
       <c r="E171" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10903928.285788905</v>
       </c>
     </row>
@@ -4798,19 +4826,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>596515601.28980112</v>
       </c>
       <c r="C172" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D172" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>597140601.28980112</v>
       </c>
       <c r="E172" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11118593.759575292</v>
       </c>
     </row>
@@ -4819,19 +4847,19 @@
         <v>160</v>
       </c>
       <c r="B173" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>608259195.04937637</v>
       </c>
       <c r="C173" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D173" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>608884195.04937637</v>
       </c>
       <c r="E173" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11337256.24544239</v>
       </c>
     </row>
@@ -4840,19 +4868,19 @@
         <v>161</v>
       </c>
       <c r="B174" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>620221451.29481876</v>
       </c>
       <c r="C174" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D174" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>620846451.29481876</v>
       </c>
       <c r="E174" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11559990.166655809</v>
       </c>
     </row>
@@ -4861,19 +4889,19 @@
         <v>162</v>
       </c>
       <c r="B175" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>632406441.46147454</v>
       </c>
       <c r="C175" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D175" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>633031441.46147454</v>
       </c>
       <c r="E175" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11786871.332221897</v>
       </c>
     </row>
@@ -4882,19 +4910,19 @@
         <v>163</v>
       </c>
       <c r="B176" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>644818312.7936964</v>
       </c>
       <c r="C176" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D176" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>645443312.7936964</v>
       </c>
       <c r="E176" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12017976.962689854</v>
       </c>
     </row>
@@ -4903,19 +4931,19 @@
         <v>164</v>
       </c>
       <c r="B177" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>657461289.75638628</v>
       </c>
       <c r="C177" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D177" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>658086289.75638628</v>
       </c>
       <c r="E177" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12253385.716434261</v>
       </c>
     </row>
@@ -4924,19 +4952,19 @@
         <v>165</v>
       </c>
       <c r="B178" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>670339675.47282052</v>
       </c>
       <c r="C178" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D178" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>670964675.47282052</v>
       </c>
       <c r="E178" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12493177.716427002</v>
       </c>
     </row>
@@ -4945,19 +4973,19 @@
         <v>166</v>
       </c>
       <c r="B179" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>683457853.18924749</v>
       </c>
       <c r="C179" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D179" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>684082853.18924749</v>
       </c>
       <c r="E179" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12737434.577507662</v>
       </c>
     </row>
@@ -4966,19 +4994,19 @@
         <v>167</v>
       </c>
       <c r="B180" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>696820287.7667551</v>
       </c>
       <c r="C180" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D180" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>697445287.7667551</v>
       </c>
       <c r="E180" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12986239.434161689</v>
       </c>
     </row>
@@ -4987,19 +5015,19 @@
         <v>168</v>
       </c>
       <c r="B181" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>710431527.20091677</v>
       </c>
       <c r="C181" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D181" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>711056527.20091677</v>
       </c>
       <c r="E181" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13239676.96881579</v>
       </c>
     </row>
@@ -5008,19 +5036,19 @@
         <v>169</v>
       </c>
       <c r="B182" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>724296204.16973257</v>
       </c>
       <c r="C182" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D182" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>724921204.16973257</v>
       </c>
       <c r="E182" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13497833.440660164</v>
       </c>
     </row>
@@ -5029,19 +5057,19 @@
         <v>170</v>
       </c>
       <c r="B183" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>738419037.61039269</v>
       </c>
       <c r="C183" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D183" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>739044037.61039269</v>
       </c>
       <c r="E183" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13760796.715007402</v>
       </c>
     </row>
@@ -5050,19 +5078,19 @@
         <v>171</v>
       </c>
       <c r="B184" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>752804834.32540011</v>
       </c>
       <c r="C184" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D184" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>753429834.32540011</v>
       </c>
       <c r="E184" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14028656.293198058</v>
       </c>
     </row>
@@ -5071,19 +5099,19 @@
         <v>172</v>
       </c>
       <c r="B185" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>767458490.61859822</v>
       </c>
       <c r="C185" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D185" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>768083490.61859822</v>
       </c>
       <c r="E185" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14301503.343063023</v>
       </c>
     </row>
@@ -5092,19 +5120,19 @@
         <v>173</v>
       </c>
       <c r="B186" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>782384993.96166122</v>
       </c>
       <c r="C186" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D186" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>783009993.96166122</v>
       </c>
       <c r="E186" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14579430.729953127</v>
       </c>
     </row>
@@ -5113,19 +5141,19 @@
         <v>174</v>
       </c>
       <c r="B187" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>797589424.69161439</v>
       </c>
       <c r="C187" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D187" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>798214424.69161439</v>
       </c>
       <c r="E187" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14862533.048346495</v>
       </c>
     </row>
@@ -5134,19 +5162,19 @@
         <v>175</v>
       </c>
       <c r="B188" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>813076957.73996091</v>
       </c>
       <c r="C188" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D188" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>813701957.73996091</v>
       </c>
       <c r="E188" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15150906.65404441</v>
       </c>
     </row>
@@ -5155,19 +5183,19 @@
         <v>176</v>
       </c>
       <c r="B189" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>828852864.3940053</v>
       </c>
       <c r="C189" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D189" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>829477864.3940053</v>
       </c>
       <c r="E189" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15444649.696966682</v>
       </c>
     </row>
@@ -5176,19 +5204,19 @@
         <v>177</v>
       </c>
       <c r="B190" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>844922514.09097195</v>
       </c>
       <c r="C190" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D190" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>845547514.09097195</v>
       </c>
       <c r="E190" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15743862.154557623</v>
       </c>
     </row>
@@ -5197,19 +5225,19 @@
         <v>178</v>
       </c>
       <c r="B191" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>861291376.24552953</v>
       </c>
       <c r="C191" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D191" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>861916376.24552953</v>
       </c>
       <c r="E191" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16048645.865814071</v>
       </c>
     </row>
@@ -5218,19 +5246,19 @@
         <v>179</v>
       </c>
       <c r="B192" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>877965022.11134362</v>
       </c>
       <c r="C192" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D192" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>878590022.11134362</v>
       </c>
       <c r="E192" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16359104.565946968</v>
       </c>
     </row>
@@ -5239,19 +5267,19 @@
         <v>180</v>
       </c>
       <c r="B193" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>894949126.67729056</v>
       </c>
       <c r="C193" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D193" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>895574126.67729056</v>
       </c>
       <c r="E193" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16675343.921688357</v>
       </c>
     </row>
@@ -5260,19 +5288,19 @@
         <v>181</v>
       </c>
       <c r="B194" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>912249470.59897888</v>
       </c>
       <c r="C194" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D194" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>912874470.59897888</v>
       </c>
       <c r="E194" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16997471.567255765</v>
       </c>
     </row>
@@ -5281,19 +5309,19 @@
         <v>182</v>
       </c>
       <c r="B195" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>929871942.16623461</v>
       </c>
       <c r="C195" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D195" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>930496942.16623461</v>
       </c>
       <c r="E195" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17325597.140986249</v>
       </c>
     </row>
@@ -5302,19 +5330,19 @@
         <v>183</v>
       </c>
       <c r="B196" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>947822539.30722082</v>
       </c>
       <c r="C196" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D196" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>948447539.30722082</v>
       </c>
       <c r="E196" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17659832.322652549</v>
       </c>
     </row>
@@ -5323,19 +5351,19 @@
         <v>184</v>
       </c>
       <c r="B197" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>966107371.62987339</v>
       </c>
       <c r="C197" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D197" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>966732371.62987339</v>
       </c>
       <c r="E197" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18000290.871474054</v>
       </c>
     </row>
@@ -5344,19 +5372,19 @@
         <v>185</v>
       </c>
       <c r="B198" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>984732662.50134742</v>
       </c>
       <c r="C198" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D198" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>985357662.50134742</v>
       </c>
       <c r="E198" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18347088.664835524</v>
       </c>
     </row>
@@ -5365,19 +5393,19 @@
         <v>186</v>
       </c>
       <c r="B199" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1003704751.166183</v>
       </c>
       <c r="C199" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D199" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1004329751.166183</v>
       </c>
       <c r="E199" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18700343.737726767</v>
       </c>
     </row>
@@ -5386,19 +5414,19 @@
         <v>187</v>
       </c>
       <c r="B200" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1023030094.9039098</v>
       </c>
       <c r="C200" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D200" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1023655094.9039098</v>
       </c>
       <c r="E200" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19060176.322916627</v>
       </c>
     </row>
@@ -5407,19 +5435,19 @@
         <v>188</v>
       </c>
       <c r="B201" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1042715271.2268264</v>
       </c>
       <c r="C201" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D201" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1043340271.2268264</v>
       </c>
       <c r="E201" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19426708.89187504</v>
       </c>
     </row>
@@ -5428,19 +5456,19 @@
         <v>189</v>
       </c>
       <c r="B202" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1062766980.1187015</v>
       </c>
       <c r="C202" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D202" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1063391980.1187015</v>
       </c>
       <c r="E202" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19800066.196457017</v>
       </c>
     </row>
@@ -5449,19 +5477,19 @@
         <v>190</v>
       </c>
       <c r="B203" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1083192046.3151584</v>
       </c>
       <c r="C203" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D203" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1083817046.3151584</v>
       </c>
       <c r="E203" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20180375.31136281</v>
       </c>
     </row>
@@ -5470,19 +5498,19 @@
         <v>191</v>
       </c>
       <c r="B204" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1103997421.6265211</v>
       </c>
       <c r="C204" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D204" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1104622421.6265211</v>
       </c>
       <c r="E204" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20567765.677388638</v>
       </c>
     </row>
@@ -5491,19 +5519,19 @@
         <v>192</v>
       </c>
       <c r="B205" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1125190187.3039098</v>
       </c>
       <c r="C205" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D205" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1125815187.3039098</v>
       </c>
       <c r="E205" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20962369.145482745</v>
       </c>
     </row>
@@ -5512,19 +5540,19 @@
         <v>193</v>
       </c>
       <c r="B206" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1146777556.4493926</v>
       </c>
       <c r="C206" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="D206" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1147402556.4493926</v>
       </c>
       <c r="E206" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21364320.02162176</v>
       </c>
     </row>
@@ -5533,19 +5561,19 @@
         <v>194</v>
       </c>
       <c r="B207" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1168766876.4710143</v>
       </c>
       <c r="C207" s="17">
-        <f t="shared" ref="C207:C253" si="6">C206</f>
+        <f t="shared" ref="C207:C253" si="8">$E$9</f>
         <v>625000</v>
       </c>
       <c r="D207" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1169391876.4710143</v>
       </c>
       <c r="E207" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E207:E254" si="9">D207*$E$11</f>
         <v>21773755.112522658</v>
       </c>
     </row>
@@ -5554,19 +5582,19 @@
         <v>195</v>
       </c>
       <c r="B208" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1191165631.5835369</v>
       </c>
       <c r="C208" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D208" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1191790631.5835369</v>
       </c>
       <c r="E208" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22190813.772205867</v>
       </c>
     </row>
@@ -5575,19 +5603,19 @@
         <v>196</v>
       </c>
       <c r="B209" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1213981445.3557427</v>
       </c>
       <c r="C209" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D209" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1214606445.3557427</v>
       </c>
       <c r="E209" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22615637.949425336</v>
       </c>
     </row>
@@ -5596,19 +5624,19 @@
         <v>197</v>
       </c>
       <c r="B210" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1237222083.3051679</v>
       </c>
       <c r="C210" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D210" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1237847083.3051679</v>
       </c>
       <c r="E210" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23048372.235981781</v>
       </c>
     </row>
@@ -5617,19 +5645,19 @@
         <v>198</v>
       </c>
       <c r="B211" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1260895455.5411496</v>
       </c>
       <c r="C211" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D211" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1261520455.5411496</v>
       </c>
       <c r="E211" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23489163.915935472</v>
       </c>
     </row>
@@ -5638,19 +5666,19 @@
         <v>199</v>
       </c>
       <c r="B212" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1285009619.4570851</v>
       </c>
       <c r="C212" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D212" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1285634619.4570851</v>
       </c>
       <c r="E212" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23938163.01573538</v>
       </c>
     </row>
@@ -5659,19 +5687,19 @@
         <v>200</v>
       </c>
       <c r="B213" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1309572782.4728205</v>
       </c>
       <c r="C213" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D213" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1310197782.4728205</v>
       </c>
       <c r="E213" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24395522.355281685</v>
       </c>
     </row>
@@ -5680,19 +5708,19 @@
         <v>201</v>
       </c>
       <c r="B214" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1334593304.8281021</v>
       </c>
       <c r="C214" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D214" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1335218304.8281021</v>
       </c>
       <c r="E214" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24861397.599939074</v>
       </c>
     </row>
@@ -5701,19 +5729,19 @@
         <v>202</v>
       </c>
       <c r="B215" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1360079702.4280412</v>
       </c>
       <c r="C215" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D215" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1360704702.4280412</v>
       </c>
       <c r="E215" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25335947.313518528</v>
       </c>
     </row>
@@ -5722,19 +5750,19 @@
         <v>203</v>
       </c>
       <c r="B216" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1386040649.7415597</v>
       </c>
       <c r="C216" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D216" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1386665649.7415597</v>
       </c>
       <c r="E216" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25819333.012245558</v>
       </c>
     </row>
@@ -5743,19 +5771,19 @@
         <v>204</v>
       </c>
       <c r="B217" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1412484982.7538054</v>
       </c>
       <c r="C217" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D217" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1413109982.7538054</v>
       </c>
       <c r="E217" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>26311719.219733387</v>
       </c>
     </row>
@@ -5764,19 +5792,19 @@
         <v>205</v>
       </c>
       <c r="B218" s="17">
-        <f t="shared" ref="B218:B253" si="7">D217+E217</f>
+        <f t="shared" ref="B218:B253" si="10">D217+E217</f>
         <v>1439421701.9735389</v>
       </c>
       <c r="C218" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D218" s="17">
-        <f t="shared" ref="D218:D253" si="8">B218+C218</f>
+        <f t="shared" ref="D218:D253" si="11">B218+C218</f>
         <v>1440046701.9735389</v>
       </c>
       <c r="E218" s="18">
-        <f t="shared" ref="E218:E253" si="9">D218*$E$11</f>
+        <f t="shared" si="9"/>
         <v>26813273.522979651</v>
       </c>
     </row>
@@ -5785,15 +5813,15 @@
         <v>206</v>
       </c>
       <c r="B219" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1466859975.4965186</v>
       </c>
       <c r="C219" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D219" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1467484975.4965186</v>
       </c>
       <c r="E219" s="18">
@@ -5806,15 +5834,15 @@
         <v>207</v>
       </c>
       <c r="B220" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1494809142.1259243</v>
       </c>
       <c r="C220" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D220" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1495434142.1259243</v>
       </c>
       <c r="E220" s="18">
@@ -5827,15 +5855,15 @@
         <v>208</v>
       </c>
       <c r="B221" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1523278714.5508828</v>
       </c>
       <c r="C221" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D221" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1523903714.5508828</v>
       </c>
       <c r="E221" s="18">
@@ -5848,15 +5876,15 @@
         <v>209</v>
       </c>
       <c r="B222" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1552278382.5841758</v>
       </c>
       <c r="C222" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D222" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1552903382.5841758</v>
       </c>
       <c r="E222" s="18">
@@ -5869,15 +5897,15 @@
         <v>210</v>
       </c>
       <c r="B223" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1581818016.4602339</v>
       </c>
       <c r="C223" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D223" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1582443016.4602339</v>
       </c>
       <c r="E223" s="18">
@@ -5890,15 +5918,15 @@
         <v>211</v>
       </c>
       <c r="B224" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1611907670.1945381</v>
       </c>
       <c r="C224" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D224" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1612532670.1945381</v>
       </c>
       <c r="E224" s="18">
@@ -5911,15 +5939,15 @@
         <v>212</v>
       </c>
       <c r="B225" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1642557585.0055728</v>
       </c>
       <c r="C225" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D225" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1643182585.0055728</v>
       </c>
       <c r="E225" s="18">
@@ -5932,15 +5960,15 @@
         <v>213</v>
       </c>
       <c r="B226" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1673778192.8004932</v>
       </c>
       <c r="C226" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D226" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1674403192.8004932</v>
       </c>
       <c r="E226" s="18">
@@ -5953,15 +5981,15 @@
         <v>214</v>
       </c>
       <c r="B227" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1705580119.7256973</v>
       </c>
       <c r="C227" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D227" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1706205119.7256973</v>
       </c>
       <c r="E227" s="18">
@@ -5974,15 +6002,15 @@
         <v>215</v>
       </c>
       <c r="B228" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1737974189.7835057</v>
       </c>
       <c r="C228" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D228" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1738599189.7835057</v>
       </c>
       <c r="E228" s="18">
@@ -5995,15 +6023,15 @@
         <v>216</v>
       </c>
       <c r="B229" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1770971428.5161858</v>
       </c>
       <c r="C229" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D229" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1771596428.5161858</v>
       </c>
       <c r="E229" s="18">
@@ -6016,15 +6044,15 @@
         <v>217</v>
       </c>
       <c r="B230" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1804583066.758569</v>
       </c>
       <c r="C230" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D230" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1805208066.758569</v>
       </c>
       <c r="E230" s="18">
@@ -6037,15 +6065,15 @@
         <v>218</v>
       </c>
       <c r="B231" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1838820544.4605429</v>
       </c>
       <c r="C231" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D231" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1839445544.4605429</v>
       </c>
       <c r="E231" s="18">
@@ -6058,15 +6086,15 @@
         <v>219</v>
       </c>
       <c r="B232" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1873695514.5807154</v>
       </c>
       <c r="C232" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D232" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1874320514.5807154</v>
       </c>
       <c r="E232" s="18">
@@ -6079,15 +6107,15 @@
         <v>220</v>
       </c>
       <c r="B233" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1909219847.0525787</v>
       </c>
       <c r="C233" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D233" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1909844847.0525787</v>
       </c>
       <c r="E233" s="18">
@@ -6100,15 +6128,15 @@
         <v>221</v>
       </c>
       <c r="B234" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1945405632.8245215</v>
       </c>
       <c r="C234" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D234" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1946030632.8245215</v>
       </c>
       <c r="E234" s="18">
@@ -6121,15 +6149,15 @@
         <v>222</v>
       </c>
       <c r="B235" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1982265187.9750669</v>
       </c>
       <c r="C235" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D235" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1982890187.9750669</v>
       </c>
       <c r="E235" s="18">
@@ -6142,15 +6170,15 @@
         <v>223</v>
       </c>
       <c r="B236" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2019811057.9047318</v>
       </c>
       <c r="C236" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D236" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2020436057.9047318</v>
       </c>
       <c r="E236" s="18">
@@ -6163,15 +6191,15 @@
         <v>224</v>
       </c>
       <c r="B237" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2058056021.6059408</v>
       </c>
       <c r="C237" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D237" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2058681021.6059408</v>
       </c>
       <c r="E237" s="18">
@@ -6184,15 +6212,15 @@
         <v>225</v>
       </c>
       <c r="B238" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2097013096.0124426</v>
       </c>
       <c r="C238" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D238" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2097638096.0124426</v>
       </c>
       <c r="E238" s="18">
@@ -6205,15 +6233,15 @@
         <v>226</v>
       </c>
       <c r="B239" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2136695540.4297121</v>
       </c>
       <c r="C239" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D239" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2137320540.4297121</v>
       </c>
       <c r="E239" s="18">
@@ -6226,15 +6254,15 @@
         <v>227</v>
       </c>
       <c r="B240" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2177116861.0478454</v>
       </c>
       <c r="C240" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D240" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2177741861.0478454</v>
       </c>
       <c r="E240" s="18">
@@ -6247,15 +6275,15 @@
         <v>228</v>
       </c>
       <c r="B241" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2218290815.5384836</v>
       </c>
       <c r="C241" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D241" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2218915815.5384836</v>
       </c>
       <c r="E241" s="18">
@@ -6268,15 +6296,15 @@
         <v>229</v>
       </c>
       <c r="B242" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2260231417.7373295</v>
       </c>
       <c r="C242" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D242" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2260856417.7373295</v>
       </c>
       <c r="E242" s="18">
@@ -6289,15 +6317,15 @@
         <v>230</v>
       </c>
       <c r="B243" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2302952942.4138527</v>
       </c>
       <c r="C243" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D243" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2303577942.4138527</v>
       </c>
       <c r="E243" s="18">
@@ -6310,15 +6338,15 @@
         <v>231</v>
       </c>
       <c r="B244" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2346469930.1298041</v>
       </c>
       <c r="C244" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D244" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2347094930.1298041</v>
       </c>
       <c r="E244" s="18">
@@ -6331,15 +6359,15 @@
         <v>232</v>
       </c>
       <c r="B245" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2390797192.1881952</v>
       </c>
       <c r="C245" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D245" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2391422192.1881952</v>
       </c>
       <c r="E245" s="18">
@@ -6352,15 +6380,15 @@
         <v>233</v>
       </c>
       <c r="B246" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2435949815.6744256</v>
       </c>
       <c r="C246" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D246" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2436574815.6744256</v>
       </c>
       <c r="E246" s="18">
@@ -6373,15 +6401,15 @@
         <v>234</v>
       </c>
       <c r="B247" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2481943168.5912762</v>
       </c>
       <c r="C247" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D247" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2482568168.5912762</v>
       </c>
       <c r="E247" s="18">
@@ -6394,15 +6422,15 @@
         <v>235</v>
       </c>
       <c r="B248" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2528792905.0895119</v>
       </c>
       <c r="C248" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D248" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2529417905.0895119</v>
       </c>
       <c r="E248" s="18">
@@ -6415,15 +6443,15 @@
         <v>236</v>
       </c>
       <c r="B249" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2576514970.7958803</v>
       </c>
       <c r="C249" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D249" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2577139970.7958803</v>
       </c>
       <c r="E249" s="18">
@@ -6436,15 +6464,15 @@
         <v>237</v>
       </c>
       <c r="B250" s="17">
-        <f t="shared" si="7"/>
+        <f>D249+E249</f>
         <v>2625125608.2403135</v>
       </c>
       <c r="C250" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D250" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2625750608.2403135</v>
       </c>
       <c r="E250" s="18">
@@ -6457,15 +6485,15 @@
         <v>238</v>
       </c>
       <c r="B251" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2674641362.3841825</v>
       </c>
       <c r="C251" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D251" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2675266362.3841825</v>
       </c>
       <c r="E251" s="18">
@@ -6478,15 +6506,15 @@
         <v>239</v>
       </c>
       <c r="B252" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2725079086.2514892</v>
       </c>
       <c r="C252" s="17">
-        <f t="shared" si="6"/>
+        <f>$E$9</f>
         <v>625000</v>
       </c>
       <c r="D252" s="17">
-        <f t="shared" si="8"/>
+        <f>B252+C252</f>
         <v>2725704086.2514892</v>
       </c>
       <c r="E252" s="18">
@@ -6495,24 +6523,33 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="15">
+      <c r="A253" s="45">
         <v>240</v>
       </c>
       <c r="B253" s="17">
-        <f t="shared" si="7"/>
+        <f>D252+E252</f>
         <v>2776455946.6649075</v>
       </c>
       <c r="C253" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625000</v>
       </c>
       <c r="D253" s="17">
-        <f t="shared" si="8"/>
+        <f>B253+C253</f>
         <v>2777080946.6649075</v>
       </c>
       <c r="E253" s="18">
         <f t="shared" si="9"/>
         <v>51708483.423720025</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" s="17">
+        <f>D253+E253</f>
+        <v>2828789430.0886273</v>
       </c>
     </row>
   </sheetData>
@@ -6535,10 +6572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57131EE2-84F5-4D6B-8167-3C2A02221B35}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10494,7 +10531,7 @@
         <v>182</v>
       </c>
       <c r="B195" s="17">
-        <f t="shared" ref="B195:B253" si="6">D194+E194</f>
+        <f t="shared" ref="B195:B254" si="6">D194+E194</f>
         <v>991863404.97731543</v>
       </c>
       <c r="C195" s="17">
@@ -11708,10 +11745,10 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="15">
+      <c r="A253" s="45">
         <v>240</v>
       </c>
-      <c r="B253" s="17">
+      <c r="B253" s="46">
         <f t="shared" si="6"/>
         <v>2961553009.7759023</v>
       </c>
@@ -11724,23 +11761,32 @@
         <v>2962219676.4425688</v>
       </c>
       <c r="E253" s="18">
-        <f t="shared" si="8"/>
+        <f>D253*$E$11</f>
         <v>55155715.65196804</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" s="47">
+        <f t="shared" si="6"/>
+        <v>3017375392.0945368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11748,10 +11794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0AE91B-EA5E-4AA4-877C-39271B0D7A68}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11927,7 +11973,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" ref="B15:B133" si="1">D14+E14</f>
+        <f t="shared" ref="B15:B134" si="1">D14+E14</f>
         <v>933734.74788170424</v>
       </c>
       <c r="C15" s="17">
@@ -14401,10 +14447,10 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
+      <c r="A133" s="45">
         <v>120</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="46">
         <f t="shared" si="1"/>
         <v>400345329.02386928</v>
       </c>
@@ -14419,21 +14465,30 @@
       <c r="E133" s="18">
         <f t="shared" si="3"/>
         <v>7471387.9974044915</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="47">
+        <f t="shared" si="1"/>
+        <v>408733383.68794048</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14441,10 +14496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE730E9-3047-43F8-9F88-9B752C3C9F38}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15167,7 +15222,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="17">
-        <f t="shared" ref="B41:B49" si="7">D40+E40</f>
+        <f t="shared" ref="B41:B50" si="7">D40+E40</f>
         <v>6867565.3164669573</v>
       </c>
       <c r="C41" s="17">
@@ -15331,10 +15386,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="45">
         <v>36</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="46">
         <f t="shared" si="7"/>
         <v>9651467.9011746347</v>
       </c>
@@ -15351,19 +15406,28 @@
         <v>183328.17987400075</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="48">
+        <f t="shared" si="7"/>
+        <v>10029240.52549308</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15371,10 +15435,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880CEEF5-8811-4891-97FA-3BE9A2D351CD}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19751,7 +19815,7 @@
         <v>202</v>
       </c>
       <c r="B215" s="17">
-        <f t="shared" ref="B215:B253" si="16">D214+E214</f>
+        <f t="shared" ref="B215:B254" si="16">D214+E214</f>
         <v>5440318809.7121649</v>
       </c>
       <c r="C215" s="17">
@@ -20545,10 +20609,10 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="15">
+      <c r="A253" s="45">
         <v>240</v>
       </c>
-      <c r="B253" s="17">
+      <c r="B253" s="46">
         <f t="shared" si="16"/>
         <v>11105823786.65963</v>
       </c>
@@ -20561,23 +20625,32 @@
         <v>11108323786.65963</v>
       </c>
       <c r="E253" s="18">
-        <f t="shared" si="18"/>
+        <f>D253*$E$11</f>
         <v>206833933.6948801</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" s="48">
+        <f>D253+E253</f>
+        <v>11315157720.354509</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20585,10 +20658,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91304BA2-EEFC-4508-9691-A869D75A776E}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22151,7 +22224,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" ref="B81:B133" si="8">D80+E80</f>
+        <f t="shared" ref="B81:B134" si="8">D80+E80</f>
         <v>612299.58929423743</v>
       </c>
       <c r="C81" s="17">
@@ -23239,10 +23312,10 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
+      <c r="A133" s="45">
         <v>120</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="46">
         <f t="shared" si="8"/>
         <v>2001726.6451193425</v>
       </c>
@@ -23259,19 +23332,28 @@
         <v>37356.939987022386</v>
       </c>
     </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="48">
+        <f t="shared" si="8"/>
+        <v>2043666.9184396982</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinil\Desktop\Universidad\Semestre 4\LENGUAJES DE PROGRAMACIÓN Y CÓDIGO LIMPIO\Proyecto Hipoteca Inversa\Hipoteca-Inversa-CL-2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522198A7-92BD-49BF-8273-60188C8195C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDCC04-8001-40E3-A10C-CC0C65F81601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1320" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93E410F-6D9C-48B9-B3C8-C35D9CB27E35}">
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,7 +6539,7 @@
         <v>2777080946.6649075</v>
       </c>
       <c r="E253" s="18">
-        <f t="shared" si="9"/>
+        <f>D253*$E$11</f>
         <v>51708483.423720025</v>
       </c>
     </row>
